--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3878931.018286816</v>
+        <v>3874793.861036665</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.13346796446857</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>316.0329037710199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>120.3332554667399</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>18.45751817231702</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>111.7154785701936</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>310.0402237639984</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>62.95210643827014</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>24.55276019063764</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6580847920594</v>
       </c>
       <c r="F8" t="n">
-        <v>322.8877437640097</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.16320161686889</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>185.7913826530461</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>87.21471514852945</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,13 +1660,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.74133133758863</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>28.68281686619606</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>180.6687625091738</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.84316668127781</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678056</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>11.81332727248861</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>39.56681219551553</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496364</v>
+        <v>781.4578466818732</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7217947496364</v>
+        <v>781.4578466818732</v>
       </c>
       <c r="D2" t="n">
-        <v>116.4560961428859</v>
+        <v>781.4578466818732</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>781.4578466818732</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>370.4719418922656</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4333,10 +4333,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137582</v>
+        <v>781.4578466818732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,25 +4409,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.7955294637</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>1617.802162324682</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354872</v>
+        <v>1328.384992287721</v>
       </c>
       <c r="X4" t="n">
-        <v>575.2365734374698</v>
+        <v>1100.395441389704</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.4439942939397</v>
+        <v>1100.395441389704</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.5363853637798</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>1011.38030311145</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>653.1146045046996</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>653.1146045046996</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>242.1286997150921</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>230.464353479785</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4579,40 +4579,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.141475600671</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>1288.675717339592</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.5363853637798</v>
+        <v>1380.342820051862</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.7930236439499</v>
+        <v>689.9034178578802</v>
       </c>
       <c r="C7" t="n">
-        <v>538.7930236439499</v>
+        <v>520.9672349299733</v>
       </c>
       <c r="D7" t="n">
-        <v>388.6763842316142</v>
+        <v>370.8505955176375</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>222.9375019352444</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>76.04755443733407</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1056.199744578928</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>766.7825745419673</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>538.7930236439499</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y7" t="n">
-        <v>538.7930236439499</v>
+        <v>871.5518826881199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1614.225191671744</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="C8" t="n">
-        <v>1245.262674731332</v>
+        <v>690.403225888617</v>
       </c>
       <c r="D8" t="n">
-        <v>1245.262674731332</v>
+        <v>332.1375272818665</v>
       </c>
       <c r="E8" t="n">
-        <v>859.4744221330882</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.825031735866</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.825031735866</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y8" t="n">
-        <v>2000.825031735866</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145198</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198.1367340659135</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>250.6555853275968</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1252.149308948453</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>963.0309714522911</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>708.3464832464042</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>418.9293132094435</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>418.9293132094435</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>198.1367340659135</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362678</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,40 +5044,40 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>572.9069687101817</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5594,25 +5594,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,25 +5834,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2824.769373306003</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2674.652733893667</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2526.739640311274</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2379.849692813364</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6502,13 +6502,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>559.3040775751642</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.3909839927711</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>264.5010364948607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>701.4712640439268</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>532.5350811160199</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>382.4184417036842</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.1197288741665</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311989</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032921</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>482.6390612909563</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>334.7259677085632</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>187.8360202106528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614387</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3235.613758549116</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>3066.677575621209</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>2916.560936208873</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2768.64784262648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3927.471972559846</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>3638.054802522885</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>3638.054802522885</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>3417.262223379355</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>193.3273467878351</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566511</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.21924749803972</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.4693302300315</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>123.7828069546802</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>136.8413214260728</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>185.741486670817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>69.70496293143179</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>153.7108110197802</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8542358274157</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>650757.0122262525</v>
+        <v>650757.0122262526</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632857.9423399025</v>
+        <v>632857.9423399026</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632857.9423399026</v>
+        <v>632857.9423399025</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632857.9423399026</v>
+        <v>632857.9423399025</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632857.9423399026</v>
+        <v>632857.9423399025</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.725617677</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977558</v>
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>6.171571190602013e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732027</v>
+        <v>8117.312426731935</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732023</v>
+        <v>8117.312426731918</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732024</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732018</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-541491.8306599515</v>
       </c>
       <c r="C6" t="n">
-        <v>573259.9529159681</v>
+        <v>573259.9529159679</v>
       </c>
       <c r="D6" t="n">
-        <v>573259.9529159681</v>
+        <v>573259.9529159686</v>
       </c>
       <c r="E6" t="n">
-        <v>170242.6508225708</v>
+        <v>169895.271568214</v>
       </c>
       <c r="F6" t="n">
-        <v>677728.0924471167</v>
+        <v>677380.71319276</v>
       </c>
       <c r="G6" t="n">
-        <v>677728.0924471167</v>
+        <v>677380.7131927602</v>
       </c>
       <c r="H6" t="n">
-        <v>677728.092447117</v>
+        <v>677380.7131927597</v>
       </c>
       <c r="I6" t="n">
-        <v>677728.0924471167</v>
+        <v>677380.7131927598</v>
       </c>
       <c r="J6" t="n">
-        <v>510122.9146371342</v>
+        <v>509775.5353827772</v>
       </c>
       <c r="K6" t="n">
-        <v>677728.0924471165</v>
+        <v>677380.7131927601</v>
       </c>
       <c r="L6" t="n">
-        <v>677728.0924471167</v>
+        <v>677380.7131927598</v>
       </c>
       <c r="M6" t="n">
-        <v>545120.7987181905</v>
+        <v>544773.4194638332</v>
       </c>
       <c r="N6" t="n">
-        <v>677728.092447117</v>
+        <v>677380.7131927597</v>
       </c>
       <c r="O6" t="n">
-        <v>677728.0924471166</v>
+        <v>677380.7131927599</v>
       </c>
       <c r="P6" t="n">
-        <v>677728.0924471169</v>
+        <v>677380.7131927599</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>335.7969021077932</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>95.51479900193408</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>46.91356563188793</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,10 +27593,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>233.680125151511</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>189.3030739922118</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.20074495341464</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>83.48185620829904</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>141.7538398541665</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>122.2722852802024</v>
       </c>
       <c r="F8" t="n">
-        <v>83.98830197770178</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>116.1433984279353</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,22 +28061,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>34.95731334416581</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>-5.706459047626701e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.714463988252517e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31439,22 +31439,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639739</v>
       </c>
       <c r="N12" t="n">
-        <v>579.8936048175474</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>301.9817606876392</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32314,16 +32314,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>467.7715423565662</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32335,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>638.4800548179295</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932938</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286971</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33760,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>417.5509096439927</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>576.057346513631</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0068759113673</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065825</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419557</v>
       </c>
       <c r="N12" t="n">
-        <v>448.5518927342141</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>161.9999866016177</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35886,13 +35886,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35962,16 +35962,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35983,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>496.3460208959112</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066788</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37408,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>279.7094706696337</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>433.4611020691866</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3874793.861036665</v>
+        <v>3876554.39133945</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>316.0329037710199</v>
+        <v>316.0329037710204</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>79.87798404842233</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18.45751817231702</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>149.9968872508747</v>
       </c>
       <c r="H5" t="n">
-        <v>111.7154785701936</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>24.55276019063764</v>
+        <v>24.55276019063678</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920594</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>196.6997841156775</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.16320161686889</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>31.10811072719287</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>131.4244133395513</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>144.8592102470453</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189058</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>78.91051008678056</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>207.0967504439648</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.4578466818732</v>
+        <v>781.4578466818737</v>
       </c>
       <c r="C2" t="n">
-        <v>781.4578466818732</v>
+        <v>781.4578466818737</v>
       </c>
       <c r="D2" t="n">
-        <v>781.4578466818732</v>
+        <v>781.4578466818737</v>
       </c>
       <c r="E2" t="n">
-        <v>781.4578466818732</v>
+        <v>781.4578466818737</v>
       </c>
       <c r="F2" t="n">
-        <v>370.4719418922656</v>
+        <v>370.4719418922661</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,7 +4357,7 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
@@ -4375,7 +4375,7 @@
         <v>1171.597178657685</v>
       </c>
       <c r="Y2" t="n">
-        <v>781.4578466818732</v>
+        <v>781.4578466818737</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>682.7064461033928</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>682.7064461033928</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>532.589806691057</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>384.6767131086639</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>237.7867656107535</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>237.7867656107535</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1617.802162324682</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1328.384992287721</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.395441389704</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1100.395441389704</v>
+        <v>864.3549109336325</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.342820051862</v>
+        <v>1711.40570739543</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.38030311145</v>
+        <v>1342.443190455018</v>
       </c>
       <c r="D5" t="n">
-        <v>653.1146045046996</v>
+        <v>984.1774918482679</v>
       </c>
       <c r="E5" t="n">
-        <v>653.1146045046996</v>
+        <v>984.1774918482679</v>
       </c>
       <c r="F5" t="n">
-        <v>242.1286997150921</v>
+        <v>573.1915870586604</v>
       </c>
       <c r="G5" t="n">
-        <v>230.464353479785</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816085</v>
@@ -4579,40 +4579,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583056</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312942</v>
+        <v>2084.87146565651</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051862</v>
+        <v>1711.40570739543</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051862</v>
+        <v>1711.40570739543</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380218</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
@@ -4664,10 +4664,10 @@
         <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434117</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9034178578802</v>
+        <v>689.9034178578793</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9672349299733</v>
+        <v>520.9672349299724</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8505955176375</v>
+        <v>370.8505955176366</v>
       </c>
       <c r="E7" t="n">
-        <v>222.9375019352444</v>
+        <v>222.9375019352435</v>
       </c>
       <c r="F7" t="n">
-        <v>76.04755443733407</v>
+        <v>76.04755443733316</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.761631868611</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.34446183165</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.34446183165</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.5518826881199</v>
+        <v>871.551882688119</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829029</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C8" t="n">
-        <v>690.403225888617</v>
+        <v>1416.637639419809</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818665</v>
+        <v>1058.371940813058</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251367</v>
+        <v>672.5836882148142</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>261.5977834252066</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>249.9334371898996</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130042</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868962</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>2172.199996424342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657498</v>
+        <v>685.1760210978774</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378429</v>
+        <v>516.2398381699705</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255072</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="E10" t="n">
-        <v>397.5455328255072</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F10" t="n">
-        <v>250.6555853275968</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1315.606615969665</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.03939913952</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959895</v>
+        <v>866.8244859281172</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,7 +5117,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5129,10 +5129,10 @@
         <v>245.2306927803938</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>450.3671302240735</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
         <v>1859.536823237711</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6141,34 +6141,34 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,7 +6712,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,19 +7010,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>372.4964262156764</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
         <v>867.8220324314351</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>294.8344935184725</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878338</v>
+        <v>193.3273467878356</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120155087</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>193.3273467878365</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>34.09972495271759</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23472,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>69.70496293143179</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>45.04089287986324</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>650757.0122262526</v>
+        <v>650757.0122262525</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>650757.0122262525</v>
+        <v>650757.0122262526</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>650757.0122262525</v>
+        <v>650757.0122262526</v>
       </c>
     </row>
     <row r="5">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632857.9423399025</v>
+        <v>632857.9423399026</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
@@ -26328,34 +26328,34 @@
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245465</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="C4" t="n">
-        <v>134318.0002618637</v>
-      </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731935</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731918</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26447,13 +26447,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732018</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426732016</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541491.8306599515</v>
+        <v>-541491.8306599518</v>
       </c>
       <c r="C6" t="n">
-        <v>573259.9529159679</v>
+        <v>573259.952915968</v>
       </c>
       <c r="D6" t="n">
-        <v>573259.9529159686</v>
+        <v>573259.9529159678</v>
       </c>
       <c r="E6" t="n">
-        <v>169895.271568214</v>
+        <v>170207.9128971346</v>
       </c>
       <c r="F6" t="n">
-        <v>677380.71319276</v>
+        <v>677693.3545216811</v>
       </c>
       <c r="G6" t="n">
-        <v>677380.7131927602</v>
+        <v>677693.3545216812</v>
       </c>
       <c r="H6" t="n">
-        <v>677380.7131927597</v>
+        <v>677693.3545216812</v>
       </c>
       <c r="I6" t="n">
-        <v>677380.7131927598</v>
+        <v>677693.3545216811</v>
       </c>
       <c r="J6" t="n">
-        <v>509775.5353827772</v>
+        <v>510088.1767116985</v>
       </c>
       <c r="K6" t="n">
-        <v>677380.7131927601</v>
+        <v>677693.3545216812</v>
       </c>
       <c r="L6" t="n">
-        <v>677380.7131927598</v>
+        <v>677693.3545216811</v>
       </c>
       <c r="M6" t="n">
-        <v>544773.4194638332</v>
+        <v>545086.0607927542</v>
       </c>
       <c r="N6" t="n">
-        <v>677380.7131927597</v>
+        <v>677693.3545216812</v>
       </c>
       <c r="O6" t="n">
-        <v>677380.7131927599</v>
+        <v>677693.3545216811</v>
       </c>
       <c r="P6" t="n">
-        <v>677380.7131927599</v>
+        <v>677693.3545216813</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.500762972007983e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996103</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.51479900193408</v>
+        <v>95.51479900193362</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>67.37352510670651</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>233.680125151511</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>261.5508155220792</v>
       </c>
       <c r="H5" t="n">
-        <v>189.3030739922118</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>141.7538398541665</v>
+        <v>141.7538398541674</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802024</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>104.3187684467279</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>116.1433984279353</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>70.44946169238079</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.706459047626701e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>9.445023314930081e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>618.3341264639739</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>572.8682992214867</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32320,19 +32320,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>467.7715423565662</v>
+        <v>467.7715423565655</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32557,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>638.4800548179295</v>
+        <v>638.4800548179292</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33745,7 +33745,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>232.1537035940586</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,10 +33976,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>417.5509096439927</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>581.2949959490413</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>630.2591755145955</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313188</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>476.2000925419557</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>430.2720547770423</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>325.6375084345479</v>
+        <v>325.6375084345472</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>496.3460208959112</v>
+        <v>496.3460208959108</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>90.01966967204032</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>279.7094706696337</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>442.7406161691672</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
